--- a/examples/example_data/Description_Example.xlsx
+++ b/examples/example_data/Description_Example.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jay\Dropbox\Courses\DIRECT\smoogle\examples\example_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jay\Dropbox\pyeem\examples\example_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA8EC26-CD02-4709-AA51-28B829D6E787}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D805E26B-C941-43A7-A3EE-8BD2CE00B409}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9030" windowHeight="3480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
-    <sheet name="Blank" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,90 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Blank</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Spectroscopy grade blank</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>BCycHex161130</t>
-  </si>
-  <si>
-    <t>BCycHex160830</t>
-  </si>
-  <si>
-    <t>Chem Store Cyclohexane Blank (Used first scan only)</t>
-  </si>
-  <si>
-    <t>Spectroscopy grade blank (Used first scan only)</t>
-  </si>
-  <si>
-    <t>BCycHex170512</t>
-  </si>
-  <si>
-    <t>BCycHex170719</t>
-  </si>
-  <si>
-    <t>BCycHex170412</t>
-  </si>
-  <si>
-    <t>BCycHex171027</t>
-  </si>
-  <si>
-    <t>BCycHex180110</t>
-  </si>
-  <si>
-    <t>BCycHex180117</t>
-  </si>
-  <si>
     <t>Desc</t>
-  </si>
-  <si>
-    <t>Conc</t>
-  </si>
-  <si>
-    <t>Sample File Names</t>
-  </si>
-  <si>
-    <t>Desctiption for  titles on figures</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Soot Conc. in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>µ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>g/mL
-(Cig, Diesel, Wood)</t>
-    </r>
-  </si>
-  <si>
-    <t>5, 0, 0</t>
   </si>
   <si>
     <r>
@@ -126,13 +47,7 @@
     </r>
   </si>
   <si>
-    <t>Blank File Name</t>
-  </si>
-  <si>
     <t>Raman_Area</t>
-  </si>
-  <si>
-    <t>Raman Peak Area for Normalization so R.U.</t>
   </si>
   <si>
     <r>
@@ -149,36 +64,15 @@
     </r>
   </si>
   <si>
-    <t>0, 5, 0</t>
-  </si>
-  <si>
-    <t>0, 0, 0</t>
-  </si>
-  <si>
-    <t>0, 0, 5</t>
-  </si>
-  <si>
     <t>Wood Smoke 5 µg/mL</t>
   </si>
   <si>
-    <t>EEM Collection Date</t>
-  </si>
-  <si>
     <t>20180227_BCycHex0p5sec</t>
   </si>
   <si>
     <t>Type</t>
   </si>
   <si>
-    <t>LOD_Cig</t>
-  </si>
-  <si>
-    <t>LOD_Diesel</t>
-  </si>
-  <si>
-    <t>LOD_Wood</t>
-  </si>
-  <si>
     <t>File_Name</t>
   </si>
   <si>
@@ -191,9 +85,6 @@
     <t>Folder</t>
   </si>
   <si>
-    <t>Subfolder in data director</t>
-  </si>
-  <si>
     <t>ZEF0119_Cig_5ugmL</t>
   </si>
   <si>
@@ -209,14 +100,30 @@
     <t>For Reference only, not imported</t>
   </si>
   <si>
-    <t>Collection_Date</t>
+    <t>Sample File Names (Required)</t>
+  </si>
+  <si>
+    <t>Subfolder in data director (Required)</t>
+  </si>
+  <si>
+    <t>Blank File Name (Required for Blank Subtraction)</t>
+  </si>
+  <si>
+    <t>Raman Peak Area (Required for Raman Normalization)</t>
+  </si>
+  <si>
+    <t>Optional Meta Data Starts Here
+(as many columns as needed may be added)</t>
+  </si>
+  <si>
+    <t>Sample</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,34 +140,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -296,37 +190,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -390,21 +267,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B2:J6" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="B2:J6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="B3:J85">
-    <sortCondition ref="I2:I85"/>
-  </sortState>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B2:G6" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="B2:G6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="File_Name"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Folder"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Blank"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Raman_Area"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Desc"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Conc"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Raman_Area"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Blank"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Type"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Collection_Date"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -707,377 +578,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O63"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.19921875" customWidth="1"/>
     <col min="2" max="2" width="22.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.53125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.06640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.46484375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.73046875" customWidth="1"/>
+    <col min="3" max="3" width="17.9296875" customWidth="1"/>
+    <col min="4" max="4" width="22.06640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>39</v>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="2"/>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="5" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="3">
+        <v>12</v>
+      </c>
+      <c r="C3">
         <v>20180227</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="E3">
         <v>1146.3</v>
       </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
       <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="3">
-        <v>20180227</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="3">
+        <v>13</v>
+      </c>
+      <c r="C4">
         <v>20180227</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="E4">
         <v>1146.3</v>
       </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
       <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="3">
-        <v>20180227</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="3">
+        <v>14</v>
+      </c>
+      <c r="C5">
         <v>20180227</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="E5">
         <v>1146.3</v>
       </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
       <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="3">
-        <v>20180227</v>
-      </c>
-      <c r="O5" s="6"/>
+        <v>22</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="3">
+        <v>6</v>
+      </c>
+      <c r="C6">
         <v>20180227</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="E6">
         <v>1146.3</v>
       </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
       <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="3">
-        <v>20180227</v>
-      </c>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="O8" s="7"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="N10" s="7"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="N12" s="7"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="N14" s="7"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="N16" s="7"/>
-    </row>
-    <row r="17" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N18" s="7"/>
-    </row>
-    <row r="19" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N19" s="6"/>
-    </row>
-    <row r="20" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N20" s="7"/>
-    </row>
-    <row r="21" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N21" s="6"/>
-    </row>
-    <row r="22" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N22" s="7"/>
-    </row>
-    <row r="23" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N23" s="6"/>
-    </row>
-    <row r="24" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N24" s="7"/>
-    </row>
-    <row r="25" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N25" s="6"/>
-    </row>
-    <row r="26" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N26" s="7"/>
-    </row>
-    <row r="27" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N27" s="6"/>
-    </row>
-    <row r="28" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N28" s="7"/>
-    </row>
-    <row r="29" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N29" s="6"/>
-    </row>
-    <row r="30" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N30" s="7"/>
-    </row>
-    <row r="31" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N31" s="6"/>
-    </row>
-    <row r="32" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N32" s="7"/>
-    </row>
-    <row r="33" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N33" s="6"/>
-    </row>
-    <row r="34" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N34" s="7"/>
-    </row>
-    <row r="35" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N35" s="6"/>
-    </row>
-    <row r="36" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N36" s="7"/>
-    </row>
-    <row r="37" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N37" s="6"/>
-    </row>
-    <row r="38" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N38" s="7"/>
-    </row>
-    <row r="39" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N39" s="6"/>
-    </row>
-    <row r="40" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N40" s="7"/>
-    </row>
-    <row r="41" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N41" s="6"/>
-    </row>
-    <row r="42" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N42" s="7"/>
-    </row>
-    <row r="43" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N43" s="6"/>
-    </row>
-    <row r="44" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N44" s="7"/>
-    </row>
-    <row r="45" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N45" s="6"/>
-    </row>
-    <row r="46" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N46" s="7"/>
-    </row>
-    <row r="47" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N47" s="6"/>
-    </row>
-    <row r="48" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N48" s="7"/>
-    </row>
-    <row r="49" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N49" s="6"/>
-    </row>
-    <row r="50" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N50" s="7"/>
-    </row>
-    <row r="51" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N51" s="6"/>
-    </row>
-    <row r="52" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N52" s="7"/>
-    </row>
-    <row r="53" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N53" s="6"/>
-    </row>
-    <row r="54" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N54" s="7"/>
-    </row>
-    <row r="55" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N55" s="6"/>
-    </row>
-    <row r="56" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N56" s="7"/>
-    </row>
-    <row r="57" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N57" s="6"/>
-    </row>
-    <row r="58" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N58" s="7"/>
-    </row>
-    <row r="59" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N59" s="6"/>
-    </row>
-    <row r="60" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N60" s="7"/>
-    </row>
-    <row r="61" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N61" s="6"/>
-    </row>
-    <row r="62" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N62" s="7"/>
-    </row>
-    <row r="63" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N63" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1086,95 +740,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="19.3984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>